--- a/results/mp/tinybert/toy-spam/confidence/210/stop-words-masking-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/210/stop-words-masking-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="147">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,154 +46,148 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>thin</t>
+  </si>
+  <si>
+    <t>disappointment</t>
+  </si>
+  <si>
+    <t>terrible</t>
+  </si>
+  <si>
     <t>crap</t>
   </si>
   <si>
     <t>ripped</t>
   </si>
   <si>
-    <t>thin</t>
-  </si>
-  <si>
-    <t>terrible</t>
-  </si>
-  <si>
-    <t>trash</t>
+    <t>inches</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>loose</t>
+  </si>
+  <si>
+    <t>returned</t>
   </si>
   <si>
     <t>poor</t>
   </si>
   <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>disappointment</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>loose</t>
-  </si>
-  <si>
-    <t>inches</t>
-  </si>
-  <si>
     <t>waste</t>
   </si>
   <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
     <t>broke</t>
   </si>
   <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>smaller</t>
+    <t>water</t>
+  </si>
+  <si>
+    <t>probably</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>missing</t>
   </si>
   <si>
     <t>instead</t>
   </si>
   <si>
-    <t>noise</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>pool</t>
-  </si>
-  <si>
-    <t>tiny</t>
-  </si>
-  <si>
-    <t>small</t>
+    <t>plastic</t>
   </si>
   <si>
     <t>guess</t>
   </si>
   <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>un</t>
+  </si>
+  <si>
+    <t>fell</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
     <t>paint</t>
   </si>
   <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>lasted</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
     <t>short</t>
   </si>
   <si>
-    <t>un</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>probably</t>
-  </si>
-  <si>
-    <t>fell</t>
-  </si>
-  <si>
-    <t>plastic</t>
+    <t>di</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>half</t>
   </si>
   <si>
     <t>less</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>maybe</t>
-  </si>
-  <si>
-    <t>lasted</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
     <t>difficult</t>
   </si>
   <si>
-    <t>cheap</t>
-  </si>
-  <si>
     <t>bad</t>
   </si>
   <si>
+    <t>tried</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
     <t>return</t>
   </si>
   <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>seem</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>tried</t>
-  </si>
-  <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>bit</t>
+    <t>actually</t>
   </si>
   <si>
     <t>minutes</t>
@@ -202,6 +196,12 @@
     <t>though</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
     <t>size</t>
   </si>
   <si>
@@ -214,88 +214,88 @@
     <t>hard</t>
   </si>
   <si>
-    <t>color</t>
+    <t>would</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>work</t>
   </si>
   <si>
     <t>money</t>
   </si>
   <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>item</t>
+    <t>picture</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
     <t>product</t>
   </si>
   <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>worked</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>pieces</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>need</t>
-  </si>
-  <si>
-    <t>put</t>
-  </si>
-  <si>
-    <t>used</t>
+    <t>5</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
+    <t>buy</t>
+  </si>
+  <si>
     <t>box</t>
   </si>
   <si>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
     <t>use</t>
   </si>
   <si>
-    <t>enough</t>
-  </si>
-  <si>
-    <t>pieces</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>way</t>
+    <t>two</t>
   </si>
   <si>
     <t>even</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
-    <t>buy</t>
+    <t>much</t>
+  </si>
+  <si>
+    <t>toy</t>
   </si>
   <si>
     <t>made</t>
@@ -304,12 +304,6 @@
     <t>one</t>
   </si>
   <si>
-    <t>toy</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
     <t>got</t>
   </si>
   <si>
@@ -319,16 +313,22 @@
     <t>bought</t>
   </si>
   <si>
+    <t>old</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
     <t>wonderful</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>awesome</t>
+    <t>excellent</t>
   </si>
   <si>
     <t>favorite</t>
@@ -337,9 +337,6 @@
     <t>fantastic</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
     <t>enjoyable</t>
   </si>
   <si>
@@ -361,52 +358,70 @@
     <t>loved</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
     <t>pleased</t>
   </si>
   <si>
+    <t>expansion</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>grandchildren</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
     <t>learn</t>
   </si>
   <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
     <t>enjoyed</t>
   </si>
   <si>
+    <t>sturdy</t>
+  </si>
+  <si>
     <t>every</t>
   </si>
   <si>
-    <t>sturdy</t>
-  </si>
-  <si>
     <t>fun</t>
   </si>
   <si>
     <t>birthday</t>
   </si>
   <si>
+    <t>book</t>
+  </si>
+  <si>
     <t>easy</t>
   </si>
   <si>
+    <t>game</t>
+  </si>
+  <si>
     <t>family</t>
   </si>
   <si>
-    <t>game</t>
+    <t>games</t>
   </si>
   <si>
     <t>cute</t>
@@ -415,13 +430,25 @@
     <t>playing</t>
   </si>
   <si>
+    <t>grandson</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>play</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
     <t>year</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>son</t>
+  </si>
+  <si>
+    <t>kids</t>
   </si>
   <si>
     <t>good</t>
@@ -785,7 +812,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q95"/>
+  <dimension ref="A1:Q94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -793,10 +820,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J1" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -854,13 +881,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9782608695652174</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="C3">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -872,10 +899,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K3">
         <v>0.8928571428571429</v>
@@ -904,13 +931,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8636363636363636</v>
+        <v>0.8863636363636364</v>
       </c>
       <c r="C4">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D4">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -922,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K4">
-        <v>0.8888888888888888</v>
+        <v>0.8769230769230769</v>
       </c>
       <c r="L4">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="M4">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -946,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -954,13 +981,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8571428571428571</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C5">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -972,19 +999,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K5">
-        <v>0.8615384615384616</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L5">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="M5">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -996,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1004,13 +1031,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8518518518518519</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="C6">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D6">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1025,16 +1052,16 @@
         <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K6">
-        <v>0.8172043010752689</v>
+        <v>0.796875</v>
       </c>
       <c r="L6">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="M6">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1046,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1054,13 +1081,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7931034482758621</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C7">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1072,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K7">
-        <v>0.75</v>
+        <v>0.7956989247311828</v>
       </c>
       <c r="L7">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="M7">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1096,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1104,38 +1131,38 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7894736842105263</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="C8">
+        <v>16</v>
+      </c>
+      <c r="D8">
+        <v>16</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K8">
+        <v>0.75</v>
+      </c>
+      <c r="L8">
         <v>15</v>
       </c>
-      <c r="D8">
+      <c r="M8">
         <v>15</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>4</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K8">
-        <v>0.734375</v>
-      </c>
-      <c r="L8">
-        <v>47</v>
-      </c>
-      <c r="M8">
-        <v>47</v>
-      </c>
       <c r="N8">
         <v>1</v>
       </c>
@@ -1146,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1154,13 +1181,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7894736842105263</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1172,19 +1199,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K9">
-        <v>0.7083333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="L9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1196,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1204,13 +1231,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7746478873239436</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="C10">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="D10">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1222,31 +1249,31 @@
         <v>0</v>
       </c>
       <c r="H10">
+        <v>6</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K10">
+        <v>0.6981132075471698</v>
+      </c>
+      <c r="L10">
+        <v>37</v>
+      </c>
+      <c r="M10">
+        <v>37</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>16</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="K10">
-        <v>0.6792452830188679</v>
-      </c>
-      <c r="L10">
-        <v>36</v>
-      </c>
-      <c r="M10">
-        <v>36</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1275,16 +1302,16 @@
         <v>18</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K11">
-        <v>0.5710186513629842</v>
+        <v>0.5868005738880918</v>
       </c>
       <c r="L11">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="M11">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1296,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>299</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1304,13 +1331,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7142857142857143</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>132</v>
       </c>
       <c r="D12">
-        <v>15</v>
+        <v>132</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1322,19 +1349,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K12">
-        <v>0.5652173913043478</v>
+        <v>0.5362318840579711</v>
       </c>
       <c r="L12">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M12">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1346,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1354,13 +1381,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7096774193548387</v>
+        <v>0.7090909090909091</v>
       </c>
       <c r="C13">
-        <v>132</v>
+        <v>39</v>
       </c>
       <c r="D13">
-        <v>132</v>
+        <v>39</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1372,19 +1399,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K13">
-        <v>0.5311203319502075</v>
+        <v>0.516597510373444</v>
       </c>
       <c r="L13">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="M13">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1396,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>226</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1425,16 +1452,16 @@
         <v>7</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K14">
-        <v>0.4786885245901639</v>
+        <v>0.4729508196721312</v>
       </c>
       <c r="L14">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="M14">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1446,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>636</v>
+        <v>643</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1454,13 +1481,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6818181818181818</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C15">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D15">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1472,19 +1499,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K15">
-        <v>0.3700305810397553</v>
+        <v>0.3914373088685015</v>
       </c>
       <c r="L15">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="M15">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1496,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1504,13 +1531,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.668918918918919</v>
+        <v>0.676056338028169</v>
       </c>
       <c r="C16">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="D16">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1522,19 +1549,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K16">
-        <v>0.3650793650793651</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="L16">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="M16">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1546,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>120</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1554,13 +1581,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6601941747572816</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="C17">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="D17">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1572,19 +1599,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K17">
-        <v>0.3583333333333333</v>
+        <v>0.3493975903614458</v>
       </c>
       <c r="L17">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="M17">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1596,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>77</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1604,13 +1631,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6363636363636364</v>
+        <v>0.6</v>
       </c>
       <c r="C18">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D18">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1622,19 +1649,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K18">
-        <v>0.3373493975903614</v>
+        <v>0.328042328042328</v>
       </c>
       <c r="L18">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="M18">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1646,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>110</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1654,13 +1681,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6052631578947368</v>
+        <v>0.6</v>
       </c>
       <c r="C19">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D19">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1672,19 +1699,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K19">
-        <v>0.3018867924528302</v>
+        <v>0.3207547169811321</v>
       </c>
       <c r="L19">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M19">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1696,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1704,13 +1731,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5630252100840336</v>
+        <v>0.5966386554621849</v>
       </c>
       <c r="C20">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D20">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1722,19 +1749,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K20">
-        <v>0.2587412587412588</v>
+        <v>0.3191489361702128</v>
       </c>
       <c r="L20">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="M20">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1746,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>106</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1754,13 +1781,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5625</v>
+        <v>0.5825242718446602</v>
       </c>
       <c r="C21">
-        <v>27</v>
+        <v>120</v>
       </c>
       <c r="D21">
-        <v>27</v>
+        <v>120</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1772,19 +1799,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K21">
-        <v>0.25</v>
+        <v>0.3050847457627119</v>
       </c>
       <c r="L21">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="M21">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1796,7 +1823,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>96</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1804,38 +1831,38 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5555555555555556</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="C22">
+        <v>23</v>
+      </c>
+      <c r="D22">
+        <v>23</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>19</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K22">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="L22">
         <v>15</v>
       </c>
-      <c r="D22">
+      <c r="M22">
         <v>15</v>
       </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>12</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="K22">
-        <v>0.2258064516129032</v>
-      </c>
-      <c r="L22">
-        <v>42</v>
-      </c>
-      <c r="M22">
-        <v>42</v>
-      </c>
       <c r="N22">
         <v>1</v>
       </c>
@@ -1846,7 +1873,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>144</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1854,13 +1881,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5555555555555556</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="C23">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D23">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1872,31 +1899,31 @@
         <v>0</v>
       </c>
       <c r="H23">
+        <v>18</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K23">
+        <v>0.25</v>
+      </c>
+      <c r="L23">
+        <v>19</v>
+      </c>
+      <c r="M23">
         <v>20</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="K23">
-        <v>0.2088353413654618</v>
-      </c>
-      <c r="L23">
-        <v>52</v>
-      </c>
-      <c r="M23">
-        <v>52</v>
-      </c>
       <c r="N23">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23">
-        <v>197</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1904,13 +1931,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5483870967741935</v>
+        <v>0.5246376811594203</v>
       </c>
       <c r="C24">
-        <v>17</v>
+        <v>181</v>
       </c>
       <c r="D24">
-        <v>17</v>
+        <v>181</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1922,19 +1949,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K24">
-        <v>0.2063492063492063</v>
+        <v>0.2377622377622378</v>
       </c>
       <c r="L24">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="M24">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1946,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1954,13 +1981,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5476190476190477</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="C25">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D25">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1972,19 +1999,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K25">
-        <v>0.2</v>
+        <v>0.2208835341365462</v>
       </c>
       <c r="L25">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="M25">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1996,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>100</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2004,13 +2031,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5428571428571428</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="C26">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D26">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2022,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K26">
-        <v>0.1954022988505747</v>
+        <v>0.2204301075268817</v>
       </c>
       <c r="L26">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="M26">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2046,7 +2073,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>70</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2054,13 +2081,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5142857142857142</v>
+        <v>0.5</v>
       </c>
       <c r="C27">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D27">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2072,19 +2099,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K27">
-        <v>0.1700262927256792</v>
+        <v>0.21875</v>
       </c>
       <c r="L27">
-        <v>194</v>
+        <v>28</v>
       </c>
       <c r="M27">
-        <v>194</v>
+        <v>28</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2096,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>947</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2104,13 +2131,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.5130434782608696</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C28">
-        <v>177</v>
+        <v>15</v>
       </c>
       <c r="D28">
-        <v>177</v>
+        <v>15</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2122,19 +2149,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>168</v>
+        <v>16</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K28">
-        <v>0.1452991452991453</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="L28">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="M28">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2146,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2154,13 +2181,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.5</v>
+        <v>0.4566929133858268</v>
       </c>
       <c r="C29">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="D29">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2172,19 +2199,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K29">
-        <v>0.1149732620320856</v>
+        <v>0.1954022988505747</v>
       </c>
       <c r="L29">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="M29">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2196,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>331</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2204,13 +2231,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.492063492063492</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C30">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D30">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2222,19 +2249,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K30">
-        <v>0.1030640668523677</v>
+        <v>0.192</v>
       </c>
       <c r="L30">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="M30">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2246,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>322</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2254,13 +2281,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4693877551020408</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C31">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D31">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2272,19 +2299,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K31">
-        <v>0.0935672514619883</v>
+        <v>0.1745614035087719</v>
       </c>
       <c r="L31">
-        <v>144</v>
+        <v>199</v>
       </c>
       <c r="M31">
-        <v>146</v>
+        <v>200</v>
       </c>
       <c r="N31">
         <v>0.99</v>
@@ -2296,7 +2323,7 @@
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>1395</v>
+        <v>941</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2304,13 +2331,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4651162790697674</v>
+        <v>0.4418604651162791</v>
       </c>
       <c r="C32">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D32">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2322,19 +2349,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K32">
-        <v>0.08171206225680934</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="L32">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M32">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2346,7 +2373,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>236</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2354,13 +2381,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.462962962962963</v>
+        <v>0.4363636363636363</v>
       </c>
       <c r="C33">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D33">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2372,13 +2399,13 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K33">
-        <v>0.06481481481481481</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="L33">
         <v>21</v>
@@ -2396,7 +2423,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>303</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2404,13 +2431,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.4473684210526316</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C34">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D34">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2422,31 +2449,31 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K34">
-        <v>0.05740987983978638</v>
+        <v>0.1126005361930295</v>
       </c>
       <c r="L34">
+        <v>42</v>
+      </c>
+      <c r="M34">
         <v>43</v>
       </c>
-      <c r="M34">
-        <v>46</v>
-      </c>
       <c r="N34">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="O34">
-        <v>0.06999999999999995</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>706</v>
+        <v>331</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2454,49 +2481,49 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.4444444444444444</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C35">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D35">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E35">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K35">
-        <v>0.05517241379310345</v>
+        <v>0.09480519480519481</v>
       </c>
       <c r="L35">
-        <v>16</v>
+        <v>146</v>
       </c>
       <c r="M35">
-        <v>16</v>
+        <v>147</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35">
-        <v>274</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2504,13 +2531,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.4409448818897638</v>
+        <v>0.4216867469879518</v>
       </c>
       <c r="C36">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="D36">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2522,31 +2549,31 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K36">
-        <v>0.03413654618473896</v>
+        <v>0.0947075208913649</v>
       </c>
       <c r="L36">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="M36">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="N36">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>481</v>
+        <v>325</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2554,13 +2581,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.4333333333333333</v>
+        <v>0.4047619047619048</v>
       </c>
       <c r="C37">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D37">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2572,31 +2599,31 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K37">
-        <v>0.02421652421652421</v>
+        <v>0.09375</v>
       </c>
       <c r="L37">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M37">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N37">
-        <v>0.85</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O37">
-        <v>0.15</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>685</v>
+        <v>145</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2604,13 +2631,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.421875</v>
+        <v>0.3984375</v>
       </c>
       <c r="C38">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D38">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2622,7 +2649,31 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>74</v>
+        <v>77</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K38">
+        <v>0.08560311284046693</v>
+      </c>
+      <c r="L38">
+        <v>22</v>
+      </c>
+      <c r="M38">
+        <v>22</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>235</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2630,13 +2681,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.4210526315789473</v>
+        <v>0.3981042654028436</v>
       </c>
       <c r="C39">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="D39">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2648,7 +2699,31 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>55</v>
+        <v>127</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K39">
+        <v>0.07407407407407407</v>
+      </c>
+      <c r="L39">
+        <v>24</v>
+      </c>
+      <c r="M39">
+        <v>24</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>300</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2656,13 +2731,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.3975903614457831</v>
+        <v>0.3877551020408163</v>
       </c>
       <c r="C40">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D40">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2674,7 +2749,31 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>50</v>
+        <v>30</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K40">
+        <v>0.06430868167202572</v>
+      </c>
+      <c r="L40">
+        <v>20</v>
+      </c>
+      <c r="M40">
+        <v>23</v>
+      </c>
+      <c r="N40">
+        <v>0.87</v>
+      </c>
+      <c r="O40">
+        <v>0.13</v>
+      </c>
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>291</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2682,13 +2781,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.3928571428571428</v>
+        <v>0.375</v>
       </c>
       <c r="C41">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D41">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2700,7 +2799,31 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>34</v>
+        <v>40</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K41">
+        <v>0.06228373702422145</v>
+      </c>
+      <c r="L41">
+        <v>18</v>
+      </c>
+      <c r="M41">
+        <v>19</v>
+      </c>
+      <c r="N41">
+        <v>0.95</v>
+      </c>
+      <c r="O41">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>271</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2708,13 +2831,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3809523809523809</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="C42">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D42">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2726,7 +2849,31 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>26</v>
+        <v>60</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K42">
+        <v>0.05087014725568943</v>
+      </c>
+      <c r="L42">
+        <v>38</v>
+      </c>
+      <c r="M42">
+        <v>43</v>
+      </c>
+      <c r="N42">
+        <v>0.88</v>
+      </c>
+      <c r="O42">
+        <v>0.12</v>
+      </c>
+      <c r="P42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>709</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2734,25 +2881,49 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.3650793650793651</v>
+        <v>0.3518518518518519</v>
       </c>
       <c r="C43">
+        <v>19</v>
+      </c>
+      <c r="D43">
+        <v>19</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>35</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K43">
+        <v>0.04627766599597585</v>
+      </c>
+      <c r="L43">
         <v>23</v>
       </c>
-      <c r="D43">
-        <v>23</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>40</v>
+      <c r="M43">
+        <v>26</v>
+      </c>
+      <c r="N43">
+        <v>0.88</v>
+      </c>
+      <c r="O43">
+        <v>0.12</v>
+      </c>
+      <c r="P43" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>474</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2760,13 +2931,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.3595505617977528</v>
+        <v>0.35</v>
       </c>
       <c r="C44">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D44">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2778,7 +2949,31 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>57</v>
+        <v>39</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K44">
+        <v>0.04336734693877551</v>
+      </c>
+      <c r="L44">
+        <v>17</v>
+      </c>
+      <c r="M44">
+        <v>21</v>
+      </c>
+      <c r="N44">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="O44">
+        <v>0.1899999999999999</v>
+      </c>
+      <c r="P44" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>375</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2786,13 +2981,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.3554502369668247</v>
+        <v>0.3483146067415731</v>
       </c>
       <c r="C45">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="D45">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2804,7 +2999,31 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>136</v>
+        <v>58</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K45">
+        <v>0.03488372093023256</v>
+      </c>
+      <c r="L45">
+        <v>15</v>
+      </c>
+      <c r="M45">
+        <v>18</v>
+      </c>
+      <c r="N45">
+        <v>0.83</v>
+      </c>
+      <c r="O45">
+        <v>0.17</v>
+      </c>
+      <c r="P45" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>415</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2812,13 +3031,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.3432835820895522</v>
+        <v>0.3283582089552239</v>
       </c>
       <c r="C46">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D46">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2830,7 +3049,31 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K46">
+        <v>0.02841918294849023</v>
+      </c>
+      <c r="L46">
+        <v>16</v>
+      </c>
+      <c r="M46">
+        <v>18</v>
+      </c>
+      <c r="N46">
+        <v>0.89</v>
+      </c>
+      <c r="O46">
+        <v>0.11</v>
+      </c>
+      <c r="P46" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>547</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2838,7 +3081,7 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.3225806451612903</v>
+        <v>0.3278688524590164</v>
       </c>
       <c r="C47">
         <v>20</v>
@@ -2856,7 +3099,31 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K47">
+        <v>0.02272727272727273</v>
+      </c>
+      <c r="L47">
+        <v>16</v>
+      </c>
+      <c r="M47">
+        <v>17</v>
+      </c>
+      <c r="N47">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O47">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>688</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -2864,13 +3131,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.3148148148148148</v>
+        <v>0.3168316831683168</v>
       </c>
       <c r="C48">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="D48">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2882,7 +3149,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>37</v>
+        <v>138</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2890,13 +3157,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.3125</v>
+        <v>0.293103448275862</v>
       </c>
       <c r="C49">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D49">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2908,7 +3175,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2916,13 +3183,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.3061224489795918</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C50">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D50">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2934,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>34</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2942,13 +3209,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.2920792079207921</v>
+        <v>0.2580645161290323</v>
       </c>
       <c r="C51">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="D51">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2960,7 +3227,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>143</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2968,13 +3235,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.2786885245901639</v>
+        <v>0.25</v>
       </c>
       <c r="C52">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D52">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2986,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2994,13 +3261,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.2758620689655172</v>
+        <v>0.2432432432432433</v>
       </c>
       <c r="C53">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D53">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3012,7 +3279,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3020,13 +3287,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.2653061224489796</v>
+        <v>0.2393162393162393</v>
       </c>
       <c r="C54">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D54">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3038,7 +3305,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>72</v>
+        <v>89</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3046,13 +3313,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.2567567567567567</v>
+        <v>0.2372881355932203</v>
       </c>
       <c r="C55">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D55">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3064,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3072,13 +3339,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.2564102564102564</v>
+        <v>0.2371134020618557</v>
       </c>
       <c r="C56">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D56">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3090,7 +3357,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3098,13 +3365,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.2319587628865979</v>
+        <v>0.2268041237113402</v>
       </c>
       <c r="C57">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D57">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3116,7 +3383,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3124,25 +3391,25 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2205882352941176</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="C58">
         <v>15</v>
       </c>
       <c r="D58">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E58">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3176,13 +3443,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2</v>
+        <v>0.205</v>
       </c>
       <c r="C60">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D60">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -3194,7 +3461,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3202,25 +3469,25 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.2</v>
+        <v>0.2020802377414562</v>
       </c>
       <c r="C61">
-        <v>15</v>
+        <v>136</v>
       </c>
       <c r="D61">
-        <v>15</v>
+        <v>137</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61">
-        <v>60</v>
+        <v>537</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3228,13 +3495,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1962025316455696</v>
+        <v>0.2011494252873563</v>
       </c>
       <c r="C62">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D62">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -3246,7 +3513,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>254</v>
+        <v>278</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3254,25 +3521,25 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.1961367013372957</v>
+        <v>0.2</v>
       </c>
       <c r="C63">
-        <v>132</v>
+        <v>28</v>
       </c>
       <c r="D63">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="E63">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>541</v>
+        <v>112</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3280,13 +3547,13 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1949152542372881</v>
+        <v>0.1992753623188406</v>
       </c>
       <c r="C64">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="D64">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -3298,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>95</v>
+        <v>221</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3306,13 +3573,13 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1884057971014493</v>
+        <v>0.178343949044586</v>
       </c>
       <c r="C65">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="D65">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -3324,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>224</v>
+        <v>129</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3332,13 +3599,13 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1728971962616822</v>
+        <v>0.1740506329113924</v>
       </c>
       <c r="C66">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="D66">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -3350,7 +3617,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>177</v>
+        <v>261</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3358,13 +3625,13 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.1656050955414013</v>
+        <v>0.1708860759493671</v>
       </c>
       <c r="C67">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="D67">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -3376,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>131</v>
+        <v>262</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3384,13 +3651,13 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1642857142857143</v>
+        <v>0.1649484536082474</v>
       </c>
       <c r="C68">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D68">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -3402,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>117</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3410,13 +3677,13 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.1550632911392405</v>
+        <v>0.1635514018691589</v>
       </c>
       <c r="C69">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D69">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -3428,7 +3695,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>267</v>
+        <v>179</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3436,13 +3703,13 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.1541850220264317</v>
+        <v>0.1519823788546255</v>
       </c>
       <c r="C70">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D70">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -3454,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3462,25 +3729,25 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1535580524344569</v>
+        <v>0.1494252873563219</v>
       </c>
       <c r="C71">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D71">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71">
-        <v>226</v>
+        <v>148</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3488,25 +3755,25 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1527377521613833</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="C72">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="D72">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="E72">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72">
-        <v>294</v>
+        <v>92</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3514,25 +3781,25 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1484375</v>
+        <v>0.1338582677165354</v>
       </c>
       <c r="C73">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D73">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3540,25 +3807,25 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1472868217054264</v>
+        <v>0.1311475409836066</v>
       </c>
       <c r="C74">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D74">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E74">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74">
-        <v>110</v>
+        <v>159</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3566,25 +3833,25 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1428571428571428</v>
+        <v>0.1278195488721804</v>
       </c>
       <c r="C75">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D75">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75">
-        <v>132</v>
+        <v>232</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3592,7 +3859,7 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1379310344827586</v>
+        <v>0.1276595744680851</v>
       </c>
       <c r="C76">
         <v>24</v>
@@ -3610,7 +3877,7 @@
         <v>1</v>
       </c>
       <c r="H76">
-        <v>150</v>
+        <v>164</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3618,25 +3885,25 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1330645161290323</v>
+        <v>0.1214574898785425</v>
       </c>
       <c r="C77">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D77">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F77">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3644,13 +3911,13 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1151832460732984</v>
+        <v>0.1042253521126761</v>
       </c>
       <c r="C78">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D78">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -3662,7 +3929,7 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>169</v>
+        <v>318</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3670,25 +3937,25 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1101928374655647</v>
+        <v>0.09947643979057591</v>
       </c>
       <c r="C79">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D79">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="E79">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79">
-        <v>323</v>
+        <v>172</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3696,13 +3963,13 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.1094890510948905</v>
+        <v>0.09895833333333333</v>
       </c>
       <c r="C80">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D80">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -3714,7 +3981,7 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>122</v>
+        <v>173</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3722,25 +3989,25 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1092896174863388</v>
+        <v>0.09467455621301775</v>
       </c>
       <c r="C81">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D81">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="G81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3748,25 +4015,25 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1063829787234043</v>
+        <v>0.09151785714285714</v>
       </c>
       <c r="C82">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="D82">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="E82">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="F82">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="G82" t="b">
         <v>1</v>
       </c>
       <c r="H82">
-        <v>168</v>
+        <v>407</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3774,25 +4041,25 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.1058823529411765</v>
+        <v>0.09041095890410959</v>
       </c>
       <c r="C83">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D83">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E83">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83">
-        <v>152</v>
+        <v>332</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3800,25 +4067,25 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.09747292418772563</v>
+        <v>0.08247422680412371</v>
       </c>
       <c r="C84">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D84">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E84">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="F84">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="G84" t="b">
         <v>1</v>
       </c>
       <c r="H84">
-        <v>250</v>
+        <v>178</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3826,25 +4093,25 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.09302325581395349</v>
+        <v>0.08243727598566308</v>
       </c>
       <c r="C85">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D85">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E85">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="F85">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="G85" t="b">
         <v>1</v>
       </c>
       <c r="H85">
-        <v>156</v>
+        <v>256</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3852,25 +4119,25 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.08724832214765101</v>
+        <v>0.07450331125827815</v>
       </c>
       <c r="C86">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D86">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E86">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="F86">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="G86" t="b">
         <v>1</v>
       </c>
       <c r="H86">
-        <v>408</v>
+        <v>559</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3878,25 +4145,25 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.08580858085808581</v>
+        <v>0.06046511627906977</v>
       </c>
       <c r="C87">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="D87">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E87">
-        <v>0.04</v>
+        <v>0.13</v>
       </c>
       <c r="F87">
-        <v>0.96</v>
+        <v>0.87</v>
       </c>
       <c r="G87" t="b">
         <v>1</v>
       </c>
       <c r="H87">
-        <v>554</v>
+        <v>404</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3904,25 +4171,25 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.07627118644067797</v>
+        <v>0.0581039755351682</v>
       </c>
       <c r="C88">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D88">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E88">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F88">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="G88" t="b">
         <v>1</v>
       </c>
       <c r="H88">
-        <v>327</v>
+        <v>616</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3930,25 +4197,25 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.06012658227848101</v>
+        <v>0.05732484076433121</v>
       </c>
       <c r="C89">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D89">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E89">
-        <v>0.05</v>
+        <v>0.14</v>
       </c>
       <c r="F89">
-        <v>0.95</v>
+        <v>0.86</v>
       </c>
       <c r="G89" t="b">
         <v>1</v>
       </c>
       <c r="H89">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3956,25 +4223,25 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.05979643765903308</v>
+        <v>0.05477707006369427</v>
       </c>
       <c r="C90">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D90">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E90">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="F90">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="G90" t="b">
         <v>1</v>
       </c>
       <c r="H90">
-        <v>739</v>
+        <v>742</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3982,25 +4249,25 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.05053598774885146</v>
+        <v>0.04558404558404559</v>
       </c>
       <c r="C91">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="D91">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="E91">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91">
-        <v>620</v>
+        <v>335</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4008,25 +4275,25 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.04929577464788732</v>
+        <v>0.04215456674473068</v>
       </c>
       <c r="C92">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D92">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E92">
-        <v>0.28</v>
+        <v>0.1</v>
       </c>
       <c r="F92">
-        <v>0.72</v>
+        <v>0.9</v>
       </c>
       <c r="G92" t="b">
         <v>1</v>
       </c>
       <c r="H92">
-        <v>405</v>
+        <v>409</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4034,25 +4301,25 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.04273504273504274</v>
+        <v>0.03777335984095427</v>
       </c>
       <c r="C93">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D93">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F93">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93">
-        <v>336</v>
+        <v>484</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4060,51 +4327,25 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.03981264637002342</v>
+        <v>0.02199413489736071</v>
       </c>
       <c r="C94">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D94">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E94">
-        <v>0.11</v>
+        <v>0.4</v>
       </c>
       <c r="F94">
-        <v>0.89</v>
+        <v>0.6</v>
       </c>
       <c r="G94" t="b">
         <v>1</v>
       </c>
       <c r="H94">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
-      <c r="A95" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B95">
-        <v>0.03386454183266932</v>
-      </c>
-      <c r="C95">
-        <v>17</v>
-      </c>
-      <c r="D95">
-        <v>19</v>
-      </c>
-      <c r="E95">
-        <v>0.11</v>
-      </c>
-      <c r="F95">
-        <v>0.89</v>
-      </c>
-      <c r="G95" t="b">
-        <v>1</v>
-      </c>
-      <c r="H95">
-        <v>485</v>
+        <v>667</v>
       </c>
     </row>
   </sheetData>
